--- a/JonahKubath_CS5310_A3_project/JonahKubath_CS5310_A3_Data.xlsx
+++ b/JonahKubath_CS5310_A3_project/JonahKubath_CS5310_A3_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koob8\Desktop\Algorithms\JonahKubath_CS5310_A3_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Desktop/Algorithms/JonahKubath_CS5310_A3_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931ECA9A-E54A-465C-844E-2EC53F4084F7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9C3B5-E395-334D-ABD6-30ECC1A044EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{58C4D35C-A57E-4404-8BBA-981FD648766C}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="12340" windowHeight="15540" xr2:uid="{58C4D35C-A57E-4404-8BBA-981FD648766C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3980,18 +3980,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC6E801-36B0-4DAB-AFED-120A10788C35}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>33.219280948873624</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>86.438561897747249</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>147.20671786825557</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>212.8771237954945</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>282.1928094887362</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>354.41343573651113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>429.04981118614774</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>80</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>505.75424759098894</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>584.26677866967077</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>664.38561897747252</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>664.38561897747252</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>200</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>1528.7712379549448</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>300</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>2468.6456071487646</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>400</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>3457.5424759098901</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>500</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>4482.8921423310439</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>600</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>5537.2912142975292</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>700</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>6615.8477782826303</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>800</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>7715.0849518197801</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>900</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>8832.4030720953342</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1000</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>9965.7842846620879</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1000</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>9965.7842846620879</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>21931.568569324176</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3000</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>34652.240356149727</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4000</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>47863.137138648352</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5000</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>61438.561897747255</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6000</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>75304.480712299453</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7000</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>89411.974447037835</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8000</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>103726.2742772967</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9000</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>118221.38357493961</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10000</v>
       </c>
